--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_2.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_2.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cluster_2_WF" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1067,4 +1068,2685 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B266"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>申请</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>拒绝</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>审批</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>一条</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>最后</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>为准</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>入群</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>同意</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>请求</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>助手</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>多次</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>多条</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>接受</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>申请加入</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>提交</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>群主</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>同一个</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>填写</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>收到</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>是否</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>同一</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>批准</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>要求</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>确定</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>文档</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>方</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>第一条</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>加群</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>发送</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>提醒</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>相同</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>具体</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>管理</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>机会</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>决定</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>验证</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>具体来说</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>群有</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>申请理由</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>接收</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>一次</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>处理结果</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>"</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>第二次</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>几条</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>失败</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>见</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>截图</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>准确性</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>后面</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>应</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>实际上</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>‘</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>得知</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>’</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>任意</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>最终</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>不能</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>相反</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>自动</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>情况</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>得到</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>不到</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>忽略</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>理由</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>多个</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>必须</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>告知</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>完成</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>用户界面</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>应弹</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>提示框</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>取消</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>加为好友</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>信息反馈</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>失效</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>建议</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>不可</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>有点</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>个字符</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>多余</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>超过</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>分割</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>发生</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>ta</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>不要</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>字符</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>最先</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>数量</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>前提条件</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>准备</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>每个</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>加</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>遗忘</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>(</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>图</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>不够</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>完备</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>未向</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>确认</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>符合条件</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>误认为</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>陌生人</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>错过</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>容易</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>过该</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>等待</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>提出</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>判断</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>相违</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>阻止</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>继续</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>不断</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>遭受</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>持续</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>骚扰</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>及时</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>退出</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>一时</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>第三条</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>整个</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>希望</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>不佳</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>相符合</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>低下</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>入</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>群时</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>运行</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>简单</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>管理混乱</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>有人</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>完整性</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>有群</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>条</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>判定</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>即以</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>信息处理</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>四条</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>多次重复</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>中说</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>改变</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>作出</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>同样</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>明确</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>视为</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>资源</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>浪费</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>工作效率</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>遇到</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>正确处理</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>剩下</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>默认</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>单用户</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>特别</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>管理者</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>其对入</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>哪一条</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>附带</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>地以</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>任一</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>单独</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>功能性</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>群遭</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>声音</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>啊啊啊</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>应有</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>添加</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>误导</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>认为</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>保存</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>引起</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>完</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>跟着</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>图一</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>三条</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>反映</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>符合要求</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>给予</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_2.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,631 +437,970 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000008464</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>在多次请求加入好友时，当多次提交申请，则系统自动‘’发送好友请求已经存在‘’，还没有加好友也可以进行聊天。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>多次 请求 加入 好友 多次 提交 申请 系统 自动 ‘ ’ 发送 好友 请求 ‘ ’ 没有 加 好友 进行 聊天</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>10010000009271</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>在群消息助手的界面中，当同一用户的同一个群有多条申请时，系统并没有以最新的或最后一条申请为准。相反，它似乎选择了最先出现的申请并忽略了其他的。具体来说，用户的操作只影响了第三条申请，而其他申请则被直接忽略了，这与预期的功能不符，可能导致用户无法正确接收到他们希望加入的群。</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>群 消息 助手 界面 同一 同一个 群有 多条 申请 系统 没有 最新 最后 一条 申请 为准 相反 选择 最先 出现 申请 忽略 具体来说 第三条 申请 申请 忽略 预期 不符 无法 正确 接收 希望 加入 群</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10010000008389</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>在申请加入群聊的过程中，尽管设置了必须填写验证信息，但用户仍然可以在不填写申请理由的情况下提交申请。这导致了验证信息的要求没有得到应有的执行，从而可能允许不符合要求的用户进入群聊。</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>申请加入 群聊 过程 设置 必须 填写 验证 信息 仍然 填写 申请理由 情况 提交 申请 验证 信息 要求 没有 得到 应有 执行 允许 符合要求 进入 群聊</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10010000008557</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>在群申请界面中，当用户填写完申请内容并点击保存后，系统并未给出任何反馈信息。用户无法得知他们的提交是否已经成功。</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>群 申请 界面 填写 完 申请 内容 点击 保存 系统 并未 给出 反馈 信息 无法 得知 提交 是否 成功</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000008288</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>该软件在处理添加群申请时存在逻辑错误。当同一用户对同一个群的多条申请进行测试时，审批结果并未按照功能描述中的要求，即以最后一条审批结果为准，而是任意选择其中一条作为最终结果。具体地，如果任何一条申请被拒绝，系统会错误地将全部申请都判定为拒绝，这与预期的功能行为不符。这可能会导致用户体验不佳，并可能影响群组管理的正常运行。</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>处理 添加 群 申请 逻辑 错误 同一 同一个 群 多条 申请 进行 审批 并未 要求 即以 最后 一条 审批 为准 任意 选择 一条 最终 具体 一条 申请 拒绝 系统 错误 申请 判定 拒绝 预期 行为 不符 不佳 群组 管理 正常 运行</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000009482</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>对于用户的多次入群申请，一旦审批某一条，其他申请自动同意，并不能再审批其他申请，没有以最新申请为准，与描述不相符合</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>多次 入群 申请 审批 一条 申请 自动 同意 不能 审批 申请 没有 最新 申请 为准 相符合</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10010000008864</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>问题描述：在群聊助手应用中，当用户尝试通过验证消息加入群组时，系统没有提供明确的反馈信息告知用户其申请状态。这导致用户无法确定他们的请求是否被接受或拒绝。</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>群聊 助手 应用 验证 消息 加入 群组 系统 没有 提供 明确 反馈 信息 告知 申请 状态 无法 确定 请求 是否 接受 拒绝</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000009444</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>加入群-申请加群理由发送后该群群主接受不到申请</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>加入 群 - 申请 加群 理由 发送 群 群主 接受 不到 申请</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000008943</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>该软件在处理群申请加入请求时存在一个bug。当用户提交多个相同的申请后，如果选择其中一条进行拒绝或同意操作，会导致其他所有相同用户的请求状态同时被改变，无法单独处理每个用户的请求。</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>处理 群 申请加入 请求 提交 多个 相同 申请 选择 一条 进行 拒绝 同意 相同 请求 状态 改变 无法 单独 处理 每个 请求</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000008420</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>文档中说若同一用户的同一个群有多条申请，以最后一条的审批结果为准，但实际上，不管对那一条请求作出同意或拒绝，其他申请条件会执行同样的操作</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>文档 中说 同一 同一个 群有 多条 申请 最后 一条 审批 为准 实际上 一条 请求 作出 同意 拒绝 申请 执行 同样</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000008912</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="C12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>该软件在处理用户多次申请加入同一个群组时，存在功能缺陷。管理员收到的提醒信息不是以最后一条通知的处理结果为准，而是多次重复收到同一个人的申请。这导致了不必要的操作和资源浪费，影响了工作效率。</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>处理 多次 申请加入 同一个 群组 缺陷 管理员 收到 提醒 信息 最后 一条 通知 处理结果 为准 多次重复 收到 同一个 申请 不必要 资源 浪费 工作效率</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000009550</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>在群消息助手的界面中，用户在审批入群申请时遇到了重复处理的问题。具体地，同一用户多次提交了入群申请，而当前的审批逻辑没有正确处理这种情况，导致该用户的多次申请被同时视为有效。这可能会导致群管理混乱和信息处理效率低下。</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>群 消息 助手 界面 审批 入群 申请 遇到 重复 处理 具体 同一 多次 提交 入群 申请 当前 审批 逻辑 没有 正确处理 情况 多次 申请 视为 有效 群 管理混乱 信息处理 效率 低下</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000009524</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>群主设置好管理员，被设置的管理员接受不到相应的消息通知。申请入群时，管理员同意之后，群主同时收到申请消息，点击同意，显示“同意入群申请失败”，申请重复。</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>群主 设置 管理员 设置 管理员 接受 不到 相应 消息 通知 申请 入 群时 管理员 同意 之后 群主 收到 申请 消息 点击 同意 同意 入群 申请 失败 申请 重复</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000009194</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>该软件的群助手功能存在缺陷。当用户拒绝他人的加群申请后，申请消息被记录到群助手中，但并未显示处理结果。拒绝或接受的具体信息并没有在界面上展示，只简单地告知用户有人申请加群，这导致功能的不完整性。</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>群 助手 缺陷 拒绝 加群 申请 申请 消息 记录 群 助手 并未 处理结果 拒绝 接受 具体 信息 没有 界面 展示 简单 告知 有人 申请 加群 完整性</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000009460</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>进入聊天界面后，该界面有群助手消息显示好友的加入群申请信息，点击该消息，显示了5条加入同一个群的申请，见截图2；点击第一条申请的同意按钮，剩下的四条记录全部默认同意，见截图3，这跟需求不符，需求要求以最后一条申请为准。</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>进入 聊天 界面 界面 有群 助手 消息 好友 加入 群 申请 信息 点击 消息 条 加入 同一个 群 申请 见 截图 点击 第一条 申请 同意 按钮 剩下 四条 记录 默认 同意 见 截图 需求 不符 需求 要求 最后 一条 申请 为准</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000009643</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>该软件在拒绝用户申请后，没有正确更新界面以显示“已拒绝”的状态。当前界面仍展示着用户的申请信息，这可能会误导用户认为他们的申请还在处理中，而实际上已经被拒绝了。</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>拒绝 申请 没有 正确 更新 界面 拒绝 状态 当前 界面 展示 申请 信息 误导 认为 申请 处理 实际上 拒绝</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000009178</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>在软件界面中，当用户尝试批准一条申请消息时，系统错误地同时批准了多条申请消息。这可能导致用户收到他们未请求的批准通知，从而引起混淆和可能的误操作。</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>软件 界面 批准 一条 申请 消息 系统 错误 批准 多条 申请 消息 收到 未 请求 批准 通知 引起 混淆 误操作</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000009361</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>若同一用户的同一个群有多条申请，应以最后一条的审批结果为准，但群主批准第一条申请消息时，后面跟着的申请消息以第一条申请消息为准了。图一批准第一条消息记录，结果三条一起被批准，没有以最后一条为准</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>同一 同一个 群有 多条 申请 应 最后 一条 审批 为准 群主 批准 第一条 申请 消息 后面 跟着 申请 消息 第一条 申请 消息 为准 图一 批准 第一条 消息 记录 三条 一起 批准 没有 最后 一条 为准</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000009428</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>在群管理功能中，当其他用户提交多条入群申请时，审批结果并没有反映出最后一次的审批决定。具体来说，尽管最后一次入群申请附带的信息为“啊啊啊吧”，但系统的显示并未更新至这一信息。这导致了管理界面与实际审批状态之间的不一致，可能会给管理者带来混淆，影响其对入群申请的处理效率和准确性。</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>群 管理 提交 多条 入群 申请 审批 没有 反映 出 最后 一次 审批 决定 具体来说 最后 一次 入群 申请 附带 信息 啊啊啊 系统 并未 更新 信息 管理 界面 审批 状态 之间 一致 管理者 带来 混淆 其对入 群 申请 处理 效率 准确性</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000009409</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>该软件界面显示了多条群消息申请记录，但系统似乎无法正确识别和处理这些申请。特别是，当系统需要根据测试需求文档来决定审批哪一条申请时，它错误地以多条申请中的任一审批记录为准。这可能导致了与测试需求文档不一致的结果，从而可能影响到整个系统的功能性和准确性。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>界面显示 多条 群 消息 申请 记录 系统 无法 正确 识别 处理 申请 特别 系统 需求 文档 决定 审批 哪一条 申请 错误 地以 多条 申请 任一 审批 记录 为准 需求 文档 一致 整个 系统 功能性 准确性</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000009545</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>申请加入群遭拒绝后，再次申请，有提示消息，但没有声音提示。</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>申请加入 群遭 拒绝 再次 申请 提示 消息 没有 声音 提示</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000009647</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>该软件在处理单用户多个申请加入群聊的功能时，存在逻辑错误。根据功能描述，应该以最后一个申请作为判断依据来确定用户是否被接受或拒绝。然而，软件实际执行的是，任意一个申请就决定了用户的最终状态，这明显与功能描述不符，导致了用户体验的不一致和功能的失效。</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>处理 单用户 多个 申请加入 群聊 逻辑 错误 应该 最后 申请 判断 确定 是否 接受 拒绝 软件 执行 任意 申请 决定 最终 状态 明显 不符 一致 失效</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>10010000008467</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>功能需求要求以最后一条的审批结果为准，但当用户申请多次时，群主接收到多次申请消息，选择接受或拒绝后，就不能再操作选择接受或拒绝，并不是以最后一条审批结果为准</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>需求 要求 最后 一条 审批 为准 申请 多次 群主 接收 多次 申请 消息 选择 接受 拒绝 不能 选择 接受 拒绝 最后 一条 审批 为准</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000008550</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>在选择加为好友时，填写申请，点击确定，却提醒用户该好友不存在。用户信息发生错误。</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>选择 加为好友 填写 申请 点击 确定 提醒 好友 信息 发生 错误</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>10010000009679</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>5</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>用户填写申请说明时，字符数量限制为255，有点多余</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>填写 申请 说明 字符 数量 限制 255 有点 多余</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>10010000009101</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>前提条件:在群消息助手中查看群的申请记录
 预期结果:申请理由应该和后面的"要不要给TA个机会"分割明显</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>前提条件 : 群 消息 助手 查看 群 申请 记录 
  预期 : 申请理由 应该 后面 " 不要 TA 机会 " 分割 明显</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>10010000008644</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>该软件界面显示了一个入群申请的填写界面，其中当用户尝试输入超过255个字符时，“确定”按钮变得不可点击。这导致用户无法完成入群申请的提交过程。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>界面显示 入群 申请 填写 界面 输入 超过 255 个字符 确定 按钮 变得 不可 点击 无法 完成 入群 申请 提交 过程</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000008140</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>问题描述：在用户界面中，当用户点击“申请加入群聊”后，系统应弹出一个提示框要求用户输入申请理由。但是在实际的操作中，无论用户点击“确定”还是“取消”，都没有出现相应的提示信息反馈，这导致用户无法得知他们的申请是否已被接受或拒绝。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>用户界面 点击 申请加入 群聊 系统 应弹 出 提示框 要求 输入 申请理由 点击 确定 取消 没有 出现 相应 提示 信息反馈 无法 得知 申请 是否 接受 拒绝</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000009258</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>用户可以提交多次入群申请，建议在用户准备提交第二次入群申请时，提醒，你已经申请过该群了。</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>提交 多次 入群 申请 建议 准备 提交 第二次 入群 申请 提醒 申请 过该 群</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000008571</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>同一用户的在同一个群提出多条申请，管理员若是在之前几条的审批信息中拒绝他的申请加入，则在之后的几条申请信息中按同意按钮会显示同意入群失败。与需求文档中的以最后一条审批结果为准这个描述相违。</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>同一 同一个 群 提出 多条 申请 管理员 之前 几条 审批 信息 拒绝 申请加入 之后 几条 申请 信息 同意 按钮 同意 入群 失败 需求 文档 最后 一条 审批 为准 相违</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000009604</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>该软件的群申请功能存在bug。用户在申请加入某个群聊并被拒绝后，系统似乎没有阻止他们继续尝试申请，导致群主不断收到重复的申请提示，从而可能遭受持续骚扰。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>群 申请 申请加入 群聊 拒绝 系统 没有 阻止 继续 申请 群主 不断 收到 重复 申请 提示 遭受 持续 骚扰</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000009163</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>该bug描述的问题是在用户申请加入群组并得到群主同意后，系统并未在用户的群界面上及时提示成功信息。相反，提示信息出现在了群助手中，导致用户必须退出当前界面并返回到群助手才能看到自己是否通过了申请请求。</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>申请加入 群组 得到 群主 同意 系统 并未 群 界面 及时 提示 成功 信息 相反 提示信息 出现 群 助手 必须 退出 当前 界面 返回 群 助手 看到 是否 申请 请求</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000009929</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>4</v>
+      </c>
+      <c r="D34" t="n">
+        <v>5</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>当用户发送加群请求后，虽然一时提示了“等待群主处理”，但是群助手里面并没有提示，以至于时间用户容易遗忘。虽然接收方收到了请求提示(图3)，但对于申请方，信息不够完备。</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>发送 加群 请求 一时 提示 等待 群主 处理 群 助手 里面 没有 提示 时间 容易 遗忘 接收 方 收到 请求 提示 ( 图 ) 申请 方 信息 不够 完备</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>10010000009372</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>该bug描述了一个用户接受群聊申请后的问题。具体来说，系统没有记录用户的接受行为，并且未向申请方显示加入群聊成功的确认消息，这导致了申请方的混淆和用户体验的下降。</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>接受 群聊 申请 具体来说 系统 没有 记录 接受 行为 未向 申请 方 加入 群聊 成功 确认 消息 申请 方 混淆 下降</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000009661</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>在用户尝试搜索并加入群组时，系统发送了入群申请审批。当管理员点击拒绝按钮时，系统未提供填写拒绝理由的界面。这可能导致管理员无法区分是否之前已拒绝过相同用户的申请。如果该用户符合条件并再次申请，管理员可能会误认为这是一个陌生人的申请而再次拒绝，从而错过了给予用户第二次机会的机会。</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>搜索 加入 群组 系统 发送 入群 申请 审批 管理员 点击 拒绝 按钮 系统 未 提供 填写 拒绝 理由 界面 管理员 无法 区分 是否 之前 拒绝 相同 申请 符合条件 再次 申请 管理员 误认为 陌生人 申请 再次 拒绝 错过 给予 第二次 机会 机会</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000009723</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>同意用户多条申请，以最后一次结果为准，应多次提示审批结果</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>同意 多条 申请 最后 一次 为准 应 多次 提示 审批</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
